--- a/data/trans_orig/CONS_ANT-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANT-Edad-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos antibióticos en País Vasco</t>
+          <t>Consumo de medicamentos antibióticos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos antibióticos en Andalucia</t>
+          <t>Consumo de medicamentos antibióticos en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos antibióticos en C.Valenciana</t>
+          <t>Consumo de medicamentos antibióticos en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_ANT-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANT-Edad-trans_orig.xlsx
@@ -735,7 +735,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>416</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -745,12 +745,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1264</t>
+          <t>1513</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>158</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -780,12 +780,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>839</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>574</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>1543</t>
+          <t>1587</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,11%</t>
         </is>
       </c>
     </row>
@@ -848,27 +848,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62423</t>
+          <t>76465</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61552</t>
+          <t>75368</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,37%</t>
+          <t>99,46%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>98,03%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -883,27 +883,27 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>62396</t>
+          <t>66084</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>61908</t>
+          <t>65403</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>99,85%</t>
+          <t>99,76%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>98,73%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>124820</t>
+          <t>142549</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>123766</t>
+          <t>141536</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>125212</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,61%</t>
+          <t>99,6%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>98,77%</t>
+          <t>98,89%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,92%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>324</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -1088,12 +1088,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1392</t>
+          <t>1664</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>408</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1345</t>
+          <t>1283</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>733</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>149</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>1949</t>
+          <t>2091</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,46%</t>
         </is>
       </c>
     </row>
@@ -1191,27 +1191,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>68890</t>
+          <t>74659</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>67773</t>
+          <t>73319</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,6%</t>
+          <t>99,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>97,78%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -1226,27 +1226,27 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>62102</t>
+          <t>67640</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>61138</t>
+          <t>66765</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>99,39%</t>
+          <t>99,4%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>97,85%</t>
+          <t>98,11%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>130991</t>
+          <t>142298</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>129698</t>
+          <t>140940</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>131543</t>
+          <t>142882</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,5%</t>
+          <t>99,49%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>98,54%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,92%</t>
+          <t>99,9%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>724</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>107</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1560</t>
+          <t>2209</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1529</t>
+          <t>1281</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>480</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3298</t>
+          <t>2817</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>2139</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
@@ -1501,22 +1501,22 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>4091</t>
+          <t>3864</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>1,8%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>94085</t>
+          <t>103236</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>93135</t>
+          <t>101751</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>94548</t>
+          <t>103853</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,36%</t>
+          <t>99,3%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>98,35%</t>
+          <t>97,88%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,84%</t>
+          <t>99,9%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>95976</t>
+          <t>109434</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>94207</t>
+          <t>107898</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>96919</t>
+          <t>110235</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,43%</t>
+          <t>98,84%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,62%</t>
+          <t>97,46%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,4%</t>
+          <t>99,57%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>190061</t>
+          <t>212671</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>188109</t>
+          <t>210811</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>191204</t>
+          <t>213679</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,89%</t>
+          <t>99,07%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>98,2%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,48%</t>
+          <t>99,54%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1213</t>
+          <t>966</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>309</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3114</t>
+          <t>2199</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>1293</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>546</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2934</t>
+          <t>2759</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>2502</t>
+          <t>2259</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>1342</t>
+          <t>1221</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>4589</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,33%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>138201</t>
+          <t>143812</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>136300</t>
+          <t>142579</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>138984</t>
+          <t>144469</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>99,13%</t>
+          <t>99,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,77%</t>
+          <t>98,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,69%</t>
+          <t>99,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>136686</t>
+          <t>151251</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>135041</t>
+          <t>149785</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>137455</t>
+          <t>151998</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>99,07%</t>
+          <t>99,15%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>98,19%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>99,62%</t>
+          <t>99,64%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>274888</t>
+          <t>295062</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>272801</t>
+          <t>293355</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>276048</t>
+          <t>296100</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>99,1%</t>
+          <t>99,24%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>98,35%</t>
+          <t>98,67%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>99,52%</t>
+          <t>99,59%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1388</t>
+          <t>1091</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>442</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3020</t>
+          <t>2431</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>981</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>291</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1651</t>
+          <t>2334</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2072</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>1021</t>
+          <t>1085</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>4114</t>
+          <t>3717</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>1,32%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>125466</t>
+          <t>128491</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>123834</t>
+          <t>127151</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>126305</t>
+          <t>129140</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,91%</t>
+          <t>99,16%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>97,62%</t>
+          <t>98,12%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,57%</t>
+          <t>99,66%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>146728</t>
+          <t>150934</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>145690</t>
+          <t>149581</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>147141</t>
+          <t>151624</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>99,58%</t>
+          <t>99,35%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>98,88%</t>
+          <t>98,46%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>99,86%</t>
+          <t>99,81%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>272193</t>
+          <t>279426</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>270080</t>
+          <t>277781</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>273173</t>
+          <t>280413</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>99,27%</t>
+          <t>99,26%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>98,5%</t>
+          <t>98,68%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>99,63%</t>
+          <t>99,61%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,32 +2450,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>909</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>316</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2241</t>
+          <t>2111</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2485,32 +2485,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>1525</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>712</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>3226</t>
+          <t>3211</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,32 +2520,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>2361</t>
+          <t>2434</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1288</t>
+          <t>1388</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>4345</t>
+          <t>4259</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,93%</t>
         </is>
       </c>
     </row>
@@ -2563,32 +2563,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>106693</t>
+          <t>103557</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>105363</t>
+          <t>102355</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>107305</t>
+          <t>104150</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>99,15%</t>
+          <t>99,13%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>97,92%</t>
+          <t>97,98%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,72%</t>
+          <t>99,7%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2598,32 +2598,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>113458</t>
+          <t>114255</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>111682</t>
+          <t>112569</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>114245</t>
+          <t>115068</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>98,74%</t>
+          <t>98,68%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>97,19%</t>
+          <t>97,23%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>99,42%</t>
+          <t>99,39%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,32 +2633,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>220151</t>
+          <t>217812</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>218167</t>
+          <t>215987</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>221224</t>
+          <t>218858</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>98,94%</t>
+          <t>98,89%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>98,05%</t>
+          <t>98,07%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>99,42%</t>
+          <t>99,37%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>1077</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>444</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>2555</t>
+          <t>2132</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,32 +2828,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>2220</t>
+          <t>2807</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>1282</t>
+          <t>1609</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>3696</t>
+          <t>4571</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>3440</t>
+          <t>3884</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>2176</t>
+          <t>2470</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>5329</t>
+          <t>5792</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,61%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>95135</t>
+          <t>88146</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>93800</t>
+          <t>87091</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>95846</t>
+          <t>88779</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>98,73%</t>
+          <t>98,79%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>97,35%</t>
+          <t>97,61%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>99,47%</t>
+          <t>99,5%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>131711</t>
+          <t>129505</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>130235</t>
+          <t>127741</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>132649</t>
+          <t>130703</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>98,34%</t>
+          <t>97,88%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>97,24%</t>
+          <t>96,55%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>98,78%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>226846</t>
+          <t>217651</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>224957</t>
+          <t>215743</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>228110</t>
+          <t>219065</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>98,51%</t>
+          <t>98,25%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>97,69%</t>
+          <t>97,39%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>99,05%</t>
+          <t>98,89%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3136,32 +3136,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>5507</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3997</t>
+          <t>3775</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>8920</t>
+          <t>8144</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3171,32 +3171,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>7578</t>
+          <t>8453</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>5305</t>
+          <t>6142</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>10446</t>
+          <t>11409</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3206,22 +3206,22 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>13588</t>
+          <t>13960</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>10409</t>
+          <t>11025</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>17145</t>
+          <t>17848</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,17%</t>
         </is>
       </c>
     </row>
@@ -3249,32 +3249,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>690893</t>
+          <t>718365</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>687983</t>
+          <t>715728</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>692906</t>
+          <t>720097</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>99,14%</t>
+          <t>99,24%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>98,72%</t>
+          <t>98,87%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>99,43%</t>
+          <t>99,48%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3284,32 +3284,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>749057</t>
+          <t>789103</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>746189</t>
+          <t>786147</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>751330</t>
+          <t>791414</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>99,0%</t>
+          <t>98,94%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>98,62%</t>
+          <t>98,57%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>99,3%</t>
+          <t>99,23%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3319,27 +3319,27 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1439950</t>
+          <t>1507469</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1436393</t>
+          <t>1503581</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1443129</t>
+          <t>1510404</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>99,07%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>98,82%</t>
+          <t>98,83%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
@@ -3362,17 +3362,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3397,17 +3397,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3432,17 +3432,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21129</t>
+          <t>18912</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1620</t>
+          <t>1664</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14702</t>
+          <t>13992</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3797,12 +3797,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>4038</t>
+          <t>4019</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>26111</t>
+          <t>26553</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>6,31%</t>
         </is>
       </c>
     </row>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>215107</t>
+          <t>217324</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>91,06%</t>
+          <t>91,99%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>169651</t>
+          <t>170361</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>182733</t>
+          <t>182689</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>92,03%</t>
+          <t>92,41%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,12%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3910,12 +3910,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>394478</t>
+          <t>394036</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>416551</t>
+          <t>416570</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>93,79%</t>
+          <t>93,69%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11804</t>
+          <t>11282</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4105,12 +4105,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2358</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14583</t>
+          <t>13948</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4120,12 +4120,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>3582</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>17519</t>
+          <t>19985</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4155,12 +4155,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>3,68%</t>
         </is>
       </c>
     </row>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>217564</t>
+          <t>218086</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,85%</t>
+          <t>95,08%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -4218,12 +4218,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>299845</t>
+          <t>300480</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>312070</t>
+          <t>312560</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,25%</t>
+          <t>99,41%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>526277</t>
+          <t>523811</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>540214</t>
+          <t>539844</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4268,12 +4268,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,78%</t>
+          <t>96,32%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,34%</t>
+          <t>99,27%</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4413,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4371</t>
+          <t>4718</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18103</t>
+          <t>18771</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4428,12 +4428,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3328</t>
+          <t>3779</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12333</t>
+          <t>13011</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4463,12 +4463,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4483,12 +4483,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10909</t>
+          <t>10863</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>26321</t>
+          <t>28253</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,46%</t>
         </is>
       </c>
     </row>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>292666</t>
+          <t>291998</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>306398</t>
+          <t>306051</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,17%</t>
+          <t>93,96%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,59%</t>
+          <t>98,48%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>310280</t>
+          <t>309602</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>319285</t>
+          <t>318834</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4576,12 +4576,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>95,97%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,97%</t>
+          <t>98,83%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4596,12 +4596,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>607060</t>
+          <t>605128</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>622472</t>
+          <t>622518</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,84%</t>
+          <t>95,54%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
@@ -4756,12 +4756,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2389</t>
+          <t>1554</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21002</t>
+          <t>20793</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9263</t>
+          <t>8523</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>34550</t>
+          <t>36293</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4806,12 +4806,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>11859</t>
+          <t>11696</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>43779</t>
+          <t>46449</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4841,12 +4841,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,5%</t>
         </is>
       </c>
     </row>
@@ -4869,12 +4869,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>606162</t>
+          <t>606371</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>624775</t>
+          <t>625610</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4884,12 +4884,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,65%</t>
+          <t>96,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,62%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>370252</t>
+          <t>368509</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>395539</t>
+          <t>396279</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4919,12 +4919,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,47%</t>
+          <t>91,03%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,71%</t>
+          <t>97,89%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4939,12 +4939,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>988187</t>
+          <t>985517</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1020107</t>
+          <t>1020270</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4954,12 +4954,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>95,5%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,85%</t>
+          <t>98,87%</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>4727</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15956</t>
+          <t>16584</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5134,12 +5134,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10632</t>
+          <t>10713</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>22368</t>
+          <t>22490</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5169,12 +5169,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>17649</t>
+          <t>17673</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>33509</t>
+          <t>34158</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>5,19%</t>
         </is>
       </c>
     </row>
@@ -5212,12 +5212,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>323173</t>
+          <t>322545</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>334564</t>
+          <t>334402</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>95,29%</t>
+          <t>95,11%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>98,65%</t>
+          <t>98,61%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>296526</t>
+          <t>296404</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>308262</t>
+          <t>308181</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5262,12 +5262,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>92,99%</t>
+          <t>92,95%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>96,67%</t>
+          <t>96,64%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5282,12 +5282,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>624515</t>
+          <t>623866</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>640375</t>
+          <t>640351</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>94,91%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>97,32%</t>
+          <t>97,31%</t>
         </is>
       </c>
     </row>
@@ -5442,12 +5442,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2859</t>
+          <t>2810</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10617</t>
+          <t>10678</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5457,12 +5457,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2338</t>
+          <t>2154</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20080</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5512,12 +5512,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>4689</t>
+          <t>5172</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>24933</t>
+          <t>25969</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,93%</t>
         </is>
       </c>
     </row>
@@ -5555,12 +5555,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>197467</t>
+          <t>197406</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>205225</t>
+          <t>205274</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>94,9%</t>
+          <t>94,87%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98,63%</t>
+          <t>98,65%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>432142</t>
+          <t>432562</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>450304</t>
+          <t>450488</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>95,47%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>99,48%</t>
+          <t>99,52%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5625,12 +5625,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>635794</t>
+          <t>634758</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>656038</t>
+          <t>655555</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>96,23%</t>
+          <t>96,07%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>99,29%</t>
+          <t>99,22%</t>
         </is>
       </c>
     </row>
@@ -5790,7 +5790,7 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>3208</t>
+          <t>3178</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5805,7 +5805,7 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5820,12 +5820,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>8621</t>
+          <t>8667</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>20593</t>
+          <t>21283</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5835,12 +5835,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5855,12 +5855,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>9643</t>
+          <t>9383</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>22001</t>
+          <t>21780</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5870,12 +5870,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,66%</t>
         </is>
       </c>
     </row>
@@ -5898,7 +5898,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>148077</t>
+          <t>148107</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -5913,7 +5913,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>97,88%</t>
+          <t>97,9%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -5933,12 +5933,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>212680</t>
+          <t>211990</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>224652</t>
+          <t>224606</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5948,12 +5948,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>91,17%</t>
+          <t>90,88%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5968,12 +5968,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>362557</t>
+          <t>362778</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>374915</t>
+          <t>375175</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5983,12 +5983,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>94,28%</t>
+          <t>94,34%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>97,49%</t>
+          <t>97,56%</t>
         </is>
       </c>
     </row>
@@ -6128,12 +6128,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>27825</t>
+          <t>27904</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>62117</t>
+          <t>61815</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6143,12 +6143,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6163,12 +6163,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>53837</t>
+          <t>51655</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>96294</t>
+          <t>96127</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6178,12 +6178,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6198,12 +6198,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>91167</t>
+          <t>90236</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>145885</t>
+          <t>145916</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
@@ -6241,12 +6241,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2039918</t>
+          <t>2040220</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2074210</t>
+          <t>2074131</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>97,04%</t>
+          <t>97,06%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>98,68%</t>
+          <t>98,67%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6276,12 +6276,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2134712</t>
+          <t>2134879</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2177169</t>
+          <t>2179351</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6291,12 +6291,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>95,68%</t>
+          <t>95,69%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>97,59%</t>
+          <t>97,68%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6311,12 +6311,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>4187156</t>
+          <t>4187125</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4241874</t>
+          <t>4242805</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6331,7 +6331,7 @@
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>97,9%</t>
+          <t>97,92%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_ANT-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANT-Edad-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos antibióticos en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos antibióticos en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -735,7 +735,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>5566</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -745,12 +745,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1513</t>
+          <t>18228</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -760,77 +760,77 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>8212</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2942</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>839</t>
+          <t>18391</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>13778</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5071</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>1587</t>
+          <t>28311</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>6,14%</t>
         </is>
       </c>
     </row>
@@ -843,32 +843,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76465</t>
+          <t>235699</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>75368</t>
+          <t>223037</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,46%</t>
+          <t>97,69%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>98,03%</t>
+          <t>92,44%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -878,72 +878,72 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>66084</t>
+          <t>211443</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>65403</t>
+          <t>201264</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>216713</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>99,76%</t>
+          <t>96,26%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>98,73%</t>
+          <t>91,63%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,66%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>205</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>142549</t>
+          <t>447142</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>141536</t>
+          <t>432609</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>455849</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,6%</t>
+          <t>97,01%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>98,89%</t>
+          <t>93,86%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,9%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,12 +1073,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>4970</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -1088,12 +1088,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1664</t>
+          <t>17587</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1103,77 +1103,77 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>8021</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1283</t>
+          <t>15556</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>12991</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>6052</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>2091</t>
+          <t>25425</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>4,66%</t>
         </is>
       </c>
     </row>
@@ -1186,32 +1186,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>74659</t>
+          <t>257004</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>73319</t>
+          <t>244387</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,57%</t>
+          <t>98,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>93,29%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -1221,72 +1221,72 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>242</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>67640</t>
+          <t>275432</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>66765</t>
+          <t>267897</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>279853</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>99,4%</t>
+          <t>97,17%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>98,11%</t>
+          <t>94,51%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,73%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>393</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>142298</t>
+          <t>532435</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>140940</t>
+          <t>520001</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>142882</t>
+          <t>539374</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,49%</t>
+          <t>97,62%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,54%</t>
+          <t>95,34%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,9%</t>
+          <t>98,89%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>10315</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>4654</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2209</t>
+          <t>18370</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1281</t>
+          <t>8262</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>4472</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2817</t>
+          <t>14503</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>20</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>18577</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>996</t>
+          <t>11854</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>3864</t>
+          <t>29723</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>4,01%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>304</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>103236</t>
+          <t>358003</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>101751</t>
+          <t>349948</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>103853</t>
+          <t>363664</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,3%</t>
+          <t>97,2%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,88%</t>
+          <t>95,01%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,9%</t>
+          <t>98,74%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>482</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>109434</t>
+          <t>365123</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>107898</t>
+          <t>358882</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>110235</t>
+          <t>368913</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,84%</t>
+          <t>97,79%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>97,46%</t>
+          <t>96,12%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,57%</t>
+          <t>98,8%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1139</t>
+          <t>786</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>212671</t>
+          <t>723126</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>210811</t>
+          <t>711980</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>213679</t>
+          <t>729849</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>99,07%</t>
+          <t>97,5%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>98,2%</t>
+          <t>95,99%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,54%</t>
+          <t>98,4%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>806</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>966</t>
+          <t>9442</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>4478</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2199</t>
+          <t>18239</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1293</t>
+          <t>12722</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>7790</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2759</t>
+          <t>19833</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>27</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>2259</t>
+          <t>22164</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>1221</t>
+          <t>14955</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>3966</t>
+          <t>32712</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>3,78%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>382</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>143812</t>
+          <t>414499</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>142579</t>
+          <t>405702</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>144469</t>
+          <t>419463</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>99,33%</t>
+          <t>97,77%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>98,48%</t>
+          <t>95,7%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,79%</t>
+          <t>98,94%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>641</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>151251</t>
+          <t>428570</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>149785</t>
+          <t>421459</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>151998</t>
+          <t>433502</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>99,15%</t>
+          <t>97,12%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>98,19%</t>
+          <t>95,51%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>99,64%</t>
+          <t>98,23%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1603</t>
+          <t>1023</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>295062</t>
+          <t>843070</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>293355</t>
+          <t>832522</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>296100</t>
+          <t>850279</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>99,24%</t>
+          <t>97,44%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>98,67%</t>
+          <t>96,22%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>99,59%</t>
+          <t>98,27%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>660</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,107 +2102,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1091</t>
+          <t>9356</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>4654</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2431</t>
+          <t>16460</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>981</t>
+          <t>19724</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>13300</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>2334</t>
+          <t>27559</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>40</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>2072</t>
+          <t>29080</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>1085</t>
+          <t>21435</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>3717</t>
+          <t>40113</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>5,51%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>388</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>128491</t>
+          <t>358687</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>127151</t>
+          <t>351583</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>129140</t>
+          <t>363389</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>99,16%</t>
+          <t>97,46%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>98,12%</t>
+          <t>95,53%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,66%</t>
+          <t>98,74%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>536</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>150934</t>
+          <t>340642</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>149581</t>
+          <t>332807</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>151624</t>
+          <t>347066</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>99,35%</t>
+          <t>94,53%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>98,46%</t>
+          <t>92,35%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>99,81%</t>
+          <t>96,31%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1581</t>
+          <t>924</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>279426</t>
+          <t>699328</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>277781</t>
+          <t>688295</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>280413</t>
+          <t>706973</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>99,26%</t>
+          <t>96,01%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>98,68%</t>
+          <t>94,49%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>99,61%</t>
+          <t>97,06%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>566</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>964</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2445,107 +2445,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>6270</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>3078</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2111</t>
+          <t>11526</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1525</t>
+          <t>10967</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>6607</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>3211</t>
+          <t>17191</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>27</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>2434</t>
+          <t>17237</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1388</t>
+          <t>11427</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>4259</t>
+          <t>24876</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>4,96%</t>
         </is>
       </c>
     </row>
@@ -2558,107 +2558,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>308</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>103557</t>
+          <t>225003</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>102355</t>
+          <t>219747</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>104150</t>
+          <t>228195</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>99,13%</t>
+          <t>97,29%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>95,02%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,7%</t>
+          <t>98,67%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>464</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>114255</t>
+          <t>259065</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>112569</t>
+          <t>252841</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>115068</t>
+          <t>263425</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>98,68%</t>
+          <t>95,94%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>97,23%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>99,39%</t>
+          <t>97,55%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1334</t>
+          <t>772</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>217812</t>
+          <t>484067</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>215987</t>
+          <t>476428</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>218858</t>
+          <t>489877</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>98,89%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>98,07%</t>
+          <t>95,04%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>99,37%</t>
+          <t>97,72%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>482</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>799</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1077</t>
+          <t>920</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>2132</t>
+          <t>3224</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>2807</t>
+          <t>15762</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>1609</t>
+          <t>9747</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>4571</t>
+          <t>24135</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>3884</t>
+          <t>16682</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>2470</t>
+          <t>10870</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>5792</t>
+          <t>24774</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>5,88%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>228</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>88146</t>
+          <t>164166</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>87091</t>
+          <t>161862</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>88779</t>
+          <t>165086</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>98,79%</t>
+          <t>99,44%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>97,61%</t>
+          <t>98,05%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>99,5%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>418</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>129505</t>
+          <t>240514</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>127741</t>
+          <t>232141</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>130703</t>
+          <t>246529</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>97,88%</t>
+          <t>93,85%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>90,58%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>98,78%</t>
+          <t>96,2%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1338</t>
+          <t>646</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>217651</t>
+          <t>404680</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>215743</t>
+          <t>396588</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>219065</t>
+          <t>410492</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>98,25%</t>
+          <t>96,04%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>94,12%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>98,89%</t>
+          <t>97,42%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165086</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165086</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165086</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>440</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256276</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256276</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256276</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>670</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>421362</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>421362</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>421362</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3131,107 +3131,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>5507</t>
+          <t>46841</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3775</t>
+          <t>32873</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>8144</t>
+          <t>64200</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>8453</t>
+          <t>83670</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>6142</t>
+          <t>68851</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>11409</t>
+          <t>101612</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>154</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>13960</t>
+          <t>130511</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>11025</t>
+          <t>109858</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>17848</t>
+          <t>153731</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>3,61%</t>
         </is>
       </c>
     </row>
@@ -3244,107 +3244,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4048</t>
+          <t>1853</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>718365</t>
+          <t>2013059</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>715728</t>
+          <t>1995700</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>720097</t>
+          <t>2027027</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>99,24%</t>
+          <t>97,73%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>98,87%</t>
+          <t>96,88%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>99,48%</t>
+          <t>98,4%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4429</t>
+          <t>2896</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>789103</t>
+          <t>2120789</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>786147</t>
+          <t>2102847</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>791414</t>
+          <t>2135608</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>98,94%</t>
+          <t>96,2%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>98,57%</t>
+          <t>95,39%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>99,23%</t>
+          <t>96,88%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>8477</t>
+          <t>4749</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1507469</t>
+          <t>4133847</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1503581</t>
+          <t>4110627</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1510404</t>
+          <t>4154500</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>99,08%</t>
+          <t>96,94%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>98,83%</t>
+          <t>96,39%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>99,28%</t>
+          <t>97,42%</t>
         </is>
       </c>
     </row>
@@ -3357,22 +3357,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4078</t>
+          <t>1895</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2059900</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2059900</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2059900</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3392,22 +3392,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4475</t>
+          <t>3008</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204459</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204459</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204459</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3427,22 +3427,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>8553</t>
+          <t>4903</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4264358</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4264358</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4264358</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos antibióticos en Andalucia (tasa de respuesta: 99,86%)</t>
+          <t>Consumo de medicamentos antibióticos en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3717,107 +3717,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5558</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1520</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18912</t>
+          <t>9569</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5602</t>
+          <t>4493</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1664</t>
+          <t>2181</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>13992</t>
+          <t>8835</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>11160</t>
+          <t>8622</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>4019</t>
+          <t>4812</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>26553</t>
+          <t>14438</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>4,24%</t>
         </is>
       </c>
     </row>
@@ -3830,107 +3830,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>230678</t>
+          <t>166041</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>217324</t>
+          <t>160602</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>168651</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,65%</t>
+          <t>97,57%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>91,99%</t>
+          <t>94,38%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,11%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>261</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>178751</t>
+          <t>165949</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>170361</t>
+          <t>161607</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>182689</t>
+          <t>168261</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>97,36%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>92,41%</t>
+          <t>94,82%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,1%</t>
+          <t>98,72%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>527</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>409429</t>
+          <t>331991</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>394036</t>
+          <t>326175</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>416570</t>
+          <t>335801</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>97,35%</t>
+          <t>97,47%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>93,69%</t>
+          <t>95,76%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>98,59%</t>
         </is>
       </c>
     </row>
@@ -3943,22 +3943,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3978,22 +3978,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>270</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4013,22 +4013,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>542</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4060,107 +4060,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1629</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11282</t>
+          <t>8876</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>3414</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1868</t>
+          <t>1309</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13948</t>
+          <t>8018</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>8889</t>
+          <t>7521</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>3952</t>
+          <t>3998</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>19985</t>
+          <t>13489</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,43%</t>
         </is>
       </c>
     </row>
@@ -4173,107 +4173,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>283</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>226968</t>
+          <t>178105</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>218086</t>
+          <t>173337</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>180584</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,95%</t>
+          <t>97,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,08%</t>
+          <t>95,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>310</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>307940</t>
+          <t>208064</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>300480</t>
+          <t>203460</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>312560</t>
+          <t>210169</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,94%</t>
+          <t>98,39%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>96,21%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,41%</t>
+          <t>99,38%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>593</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>534907</t>
+          <t>386169</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>523811</t>
+          <t>380201</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>539844</t>
+          <t>389692</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>98,37%</t>
+          <t>98,09%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,32%</t>
+          <t>96,57%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,27%</t>
+          <t>98,98%</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4321,22 +4321,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>315</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4356,22 +4356,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>604</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4403,37 +4403,37 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10143</t>
+          <t>5207</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4718</t>
+          <t>2172</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18771</t>
+          <t>10249</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4443,67 +4443,67 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6933</t>
+          <t>7496</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3779</t>
+          <t>3646</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13011</t>
+          <t>13200</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>17075</t>
+          <t>12703</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10863</t>
+          <t>7946</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>28253</t>
+          <t>20424</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>4,11%</t>
         </is>
       </c>
     </row>
@@ -4516,107 +4516,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>384</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>300626</t>
+          <t>243106</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>291998</t>
+          <t>238064</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>306051</t>
+          <t>246141</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,74%</t>
+          <t>97,9%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,96%</t>
+          <t>95,87%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,48%</t>
+          <t>99,13%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>395</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>315680</t>
+          <t>241155</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>309602</t>
+          <t>235451</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>318834</t>
+          <t>245005</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>97,85%</t>
+          <t>96,99%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>95,97%</t>
+          <t>94,69%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,83%</t>
+          <t>98,53%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>779</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>616306</t>
+          <t>484261</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>605128</t>
+          <t>476540</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>622518</t>
+          <t>489018</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,3%</t>
+          <t>97,44%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,54%</t>
+          <t>95,89%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,28%</t>
+          <t>98,4%</t>
         </is>
       </c>
     </row>
@@ -4629,22 +4629,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>392</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4664,22 +4664,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>406</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4699,22 +4699,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>798</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4746,107 +4746,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9313</t>
+          <t>2997</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1554</t>
+          <t>1178</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20793</t>
+          <t>6179</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16059</t>
+          <t>4950</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8523</t>
+          <t>1862</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>36293</t>
+          <t>10687</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>13</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>25371</t>
+          <t>7947</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>11696</t>
+          <t>4568</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>46449</t>
+          <t>15059</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>2,61%</t>
         </is>
       </c>
     </row>
@@ -4859,107 +4859,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>478</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>617851</t>
+          <t>294010</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>606371</t>
+          <t>290828</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>625610</t>
+          <t>295829</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>98,99%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>97,92%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,75%</t>
+          <t>99,6%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>451</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>388743</t>
+          <t>274025</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>368509</t>
+          <t>268288</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>396279</t>
+          <t>277113</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>96,03%</t>
+          <t>98,23%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,03%</t>
+          <t>96,17%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,89%</t>
+          <t>99,33%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1023</t>
+          <t>929</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1006595</t>
+          <t>568036</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>985517</t>
+          <t>560924</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1020270</t>
+          <t>571415</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>97,54%</t>
+          <t>98,62%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>97,39%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,87%</t>
+          <t>99,21%</t>
         </is>
       </c>
     </row>
@@ -4972,22 +4972,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>485</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5007,22 +5007,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5042,22 +5042,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>942</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5089,107 +5089,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9393</t>
+          <t>1770</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4727</t>
+          <t>491</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16584</t>
+          <t>4404</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>15412</t>
+          <t>7576</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10713</t>
+          <t>3846</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>22490</t>
+          <t>12614</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>16</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>24805</t>
+          <t>9346</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>17673</t>
+          <t>5398</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>34158</t>
+          <t>15153</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>3,1%</t>
         </is>
       </c>
     </row>
@@ -5202,107 +5202,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>366</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>329736</t>
+          <t>232930</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>322545</t>
+          <t>230296</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>334402</t>
+          <t>234209</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,23%</t>
+          <t>99,25%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>95,11%</t>
+          <t>98,12%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>98,61%</t>
+          <t>99,79%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>406</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>303482</t>
+          <t>246520</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>296404</t>
+          <t>241482</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>308181</t>
+          <t>250250</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>95,17%</t>
+          <t>97,02%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>92,95%</t>
+          <t>95,04%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>96,64%</t>
+          <t>98,49%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>924</t>
+          <t>772</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>633219</t>
+          <t>479450</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>623866</t>
+          <t>473643</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>640351</t>
+          <t>483398</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>96,23%</t>
+          <t>98,09%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>94,81%</t>
+          <t>96,9%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>97,31%</t>
+          <t>98,9%</t>
         </is>
       </c>
     </row>
@@ -5315,22 +5315,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>370</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5350,22 +5350,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>418</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5385,22 +5385,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>788</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5432,107 +5432,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5878</t>
+          <t>3256</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2810</t>
+          <t>1583</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10678</t>
+          <t>5824</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9675</t>
+          <t>5656</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2154</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>20080</t>
+          <t>8744</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>15553</t>
+          <t>8912</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>5172</t>
+          <t>5946</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>25969</t>
+          <t>13139</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>3,53%</t>
         </is>
       </c>
     </row>
@@ -5545,107 +5545,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>560</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>202206</t>
+          <t>180792</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>197406</t>
+          <t>178224</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>205274</t>
+          <t>182465</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>97,18%</t>
+          <t>98,23%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>94,87%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98,65%</t>
+          <t>99,14%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>470</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>442967</t>
+          <t>183018</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>432562</t>
+          <t>179930</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>450488</t>
+          <t>185504</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>97,86%</t>
+          <t>97,0%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>95,37%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>99,52%</t>
+          <t>98,32%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>1030</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>645174</t>
+          <t>363811</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>634758</t>
+          <t>359584</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>655555</t>
+          <t>366777</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>97,65%</t>
+          <t>97,61%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>96,07%</t>
+          <t>96,47%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>99,22%</t>
+          <t>98,4%</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5658,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>570</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5693,22 +5693,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>486</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5728,22 +5728,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>1056</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5775,107 +5775,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>912</t>
+          <t>3240</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1550</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>3178</t>
+          <t>5416</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>13725</t>
+          <t>5378</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>8667</t>
+          <t>2925</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>21283</t>
+          <t>9280</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>14637</t>
+          <t>8618</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>9383</t>
+          <t>5512</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>21780</t>
+          <t>12218</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>3,41%</t>
         </is>
       </c>
     </row>
@@ -5888,107 +5888,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>470</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>150373</t>
+          <t>143293</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>148107</t>
+          <t>141117</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>151285</t>
+          <t>144983</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>99,4%</t>
+          <t>97,79%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>97,9%</t>
+          <t>96,3%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,94%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>514</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>219548</t>
+          <t>206442</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>211990</t>
+          <t>202540</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>224606</t>
+          <t>208895</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>94,12%</t>
+          <t>97,46%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>96,28%</t>
+          <t>98,62%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>984</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>369921</t>
+          <t>349735</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>362778</t>
+          <t>346135</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>375175</t>
+          <t>352841</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>96,19%</t>
+          <t>97,6%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>94,34%</t>
+          <t>96,59%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>97,56%</t>
+          <t>98,46%</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>481</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>151285</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>151285</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>151285</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6036,22 +6036,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>528</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>233273</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>233273</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>233273</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6071,22 +6071,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>1009</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>384558</t>
+          <t>358353</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>384558</t>
+          <t>358353</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>384558</t>
+          <t>358353</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6118,107 +6118,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>43596</t>
+          <t>24707</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>27904</t>
+          <t>18393</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>61815</t>
+          <t>32782</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>73893</t>
+          <t>38963</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>51655</t>
+          <t>29815</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>96127</t>
+          <t>49682</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>125</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>117490</t>
+          <t>63670</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>90236</t>
+          <t>51985</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>145916</t>
+          <t>76537</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>2,53%</t>
         </is>
       </c>
     </row>
@@ -6231,107 +6231,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1853</t>
+          <t>2807</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2058439</t>
+          <t>1438279</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2040220</t>
+          <t>1430204</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2074131</t>
+          <t>1444593</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>98,31%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>97,06%</t>
+          <t>97,76%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>98,67%</t>
+          <t>98,74%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2896</t>
+          <t>2807</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>2157113</t>
+          <t>1525174</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2134879</t>
+          <t>1514455</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2179351</t>
+          <t>1534322</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>97,51%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>95,69%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>97,68%</t>
+          <t>98,09%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>4749</t>
+          <t>5614</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>4215551</t>
+          <t>2963452</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>4187125</t>
+          <t>2950585</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4242805</t>
+          <t>2975137</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>97,9%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>96,63%</t>
+          <t>97,47%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>97,92%</t>
+          <t>98,28%</t>
         </is>
       </c>
     </row>
@@ -6344,22 +6344,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>2859</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2102035</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2102035</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2102035</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6379,22 +6379,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3008</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2231006</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2231006</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>2231006</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6414,22 +6414,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>4903</t>
+          <t>5739</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>4333041</t>
+          <t>3027122</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>4333041</t>
+          <t>3027122</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>4333041</t>
+          <t>3027122</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos antibióticos en C.Valenciana (tasa de respuesta: 99,74%)</t>
+          <t>Consumo de medicamentos antibióticos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6704,107 +6704,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4130</t>
+          <t>416</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1520</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9569</t>
+          <t>1513</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4493</t>
+          <t>158</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2181</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8835</t>
+          <t>839</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>8622</t>
+          <t>574</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>4812</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>14438</t>
+          <t>1587</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>1,11%</t>
         </is>
       </c>
     </row>
@@ -6817,107 +6817,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>374</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>166041</t>
+          <t>76465</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>160602</t>
+          <t>75368</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>168651</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,57%</t>
+          <t>99,46%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,38%</t>
+          <t>98,03%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,11%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>347</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>165949</t>
+          <t>66084</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>161607</t>
+          <t>65403</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>168261</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,36%</t>
+          <t>99,76%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>94,82%</t>
+          <t>98,73%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,72%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>721</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>331991</t>
+          <t>142549</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>326175</t>
+          <t>141536</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>335801</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>99,6%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>98,89%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,59%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -6930,22 +6930,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6965,22 +6965,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -7000,22 +7000,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>724</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -7047,107 +7047,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4108</t>
+          <t>324</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1629</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8876</t>
+          <t>1664</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3414</t>
+          <t>408</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1309</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8018</t>
+          <t>1283</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>7521</t>
+          <t>733</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>3998</t>
+          <t>149</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>13489</t>
+          <t>2091</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>1,46%</t>
         </is>
       </c>
     </row>
@@ -7160,107 +7160,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>396</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>178105</t>
+          <t>74659</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>173337</t>
+          <t>73319</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>180584</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,75%</t>
+          <t>99,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,13%</t>
+          <t>97,78%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,11%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>365</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>208064</t>
+          <t>67640</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>203460</t>
+          <t>66765</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>210169</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,39%</t>
+          <t>99,4%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,21%</t>
+          <t>98,11%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,38%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>761</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>386169</t>
+          <t>142298</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>380201</t>
+          <t>140940</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>389692</t>
+          <t>142882</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>98,09%</t>
+          <t>99,49%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,57%</t>
+          <t>98,54%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,98%</t>
+          <t>99,9%</t>
         </is>
       </c>
     </row>
@@ -7273,22 +7273,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -7308,22 +7308,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -7343,22 +7343,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>764</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -7390,107 +7390,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5207</t>
+          <t>724</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2172</t>
+          <t>107</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10249</t>
+          <t>2209</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7496</t>
+          <t>1281</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3646</t>
+          <t>480</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13200</t>
+          <t>2817</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>9</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>12703</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>7946</t>
+          <t>996</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>20424</t>
+          <t>3864</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>1,8%</t>
         </is>
       </c>
     </row>
@@ -7503,107 +7503,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>565</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>243106</t>
+          <t>103236</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>238064</t>
+          <t>101751</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>246141</t>
+          <t>103853</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,9%</t>
+          <t>99,3%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>97,88%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,13%</t>
+          <t>99,9%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>574</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>241155</t>
+          <t>109434</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>235451</t>
+          <t>107898</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>245005</t>
+          <t>110235</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,99%</t>
+          <t>98,84%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>97,46%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,53%</t>
+          <t>99,57%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>1139</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>484261</t>
+          <t>212671</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>476540</t>
+          <t>210811</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>489018</t>
+          <t>213679</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,44%</t>
+          <t>99,07%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,89%</t>
+          <t>98,2%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,4%</t>
+          <t>99,54%</t>
         </is>
       </c>
     </row>
@@ -7616,22 +7616,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>568</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -7651,22 +7651,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>580</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -7686,22 +7686,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7733,107 +7733,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>966</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2199</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2997</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1178</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>6179</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>1,01%</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0,4%</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>2,08%</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4950</t>
+          <t>1293</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1862</t>
+          <t>546</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10687</t>
+          <t>2759</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>7947</t>
+          <t>2259</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>4568</t>
+          <t>1221</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>15059</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>1,33%</t>
         </is>
       </c>
     </row>
@@ -7846,107 +7846,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>798</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>294010</t>
+          <t>143812</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>290828</t>
+          <t>142579</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>295829</t>
+          <t>144469</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,99%</t>
+          <t>99,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,92%</t>
+          <t>98,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,6%</t>
+          <t>99,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>805</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>274025</t>
+          <t>151251</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>268288</t>
+          <t>149785</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>277113</t>
+          <t>151998</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>98,23%</t>
+          <t>99,15%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>96,17%</t>
+          <t>98,19%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>99,33%</t>
+          <t>99,64%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>1603</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>568036</t>
+          <t>295062</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>560924</t>
+          <t>293355</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>571415</t>
+          <t>296100</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>98,62%</t>
+          <t>99,24%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>98,67%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>99,21%</t>
+          <t>99,59%</t>
         </is>
       </c>
     </row>
@@ -7959,22 +7959,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>803</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7994,22 +7994,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>812</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -8029,22 +8029,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -8076,32 +8076,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1770</t>
+          <t>1091</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>442</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4404</t>
+          <t>2431</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -8111,72 +8111,72 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7576</t>
+          <t>981</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>3846</t>
+          <t>291</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>12614</t>
+          <t>2334</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>9346</t>
+          <t>2072</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>5398</t>
+          <t>1085</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>15153</t>
+          <t>3717</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>1,32%</t>
         </is>
       </c>
     </row>
@@ -8189,27 +8189,27 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>727</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>232930</t>
+          <t>128491</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>230296</t>
+          <t>127151</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>234209</t>
+          <t>129140</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>99,25%</t>
+          <t>99,16%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -8219,77 +8219,77 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,79%</t>
+          <t>99,66%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>854</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>246520</t>
+          <t>150934</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>241482</t>
+          <t>149581</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>250250</t>
+          <t>151624</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>97,02%</t>
+          <t>99,35%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>95,04%</t>
+          <t>98,46%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>98,49%</t>
+          <t>99,81%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>1581</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>479450</t>
+          <t>279426</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>473643</t>
+          <t>277781</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>483398</t>
+          <t>280413</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>98,09%</t>
+          <t>99,26%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>96,9%</t>
+          <t>98,68%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>98,9%</t>
+          <t>99,61%</t>
         </is>
       </c>
     </row>
@@ -8302,22 +8302,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>733</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -8337,22 +8337,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>859</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -8372,22 +8372,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -8419,107 +8419,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>909</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1583</t>
+          <t>316</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5824</t>
+          <t>2111</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5656</t>
+          <t>1525</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>3170</t>
+          <t>712</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8744</t>
+          <t>3211</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>15</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>8912</t>
+          <t>2434</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>5946</t>
+          <t>1388</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>13139</t>
+          <t>4259</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>1,93%</t>
         </is>
       </c>
     </row>
@@ -8532,107 +8532,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>640</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>180792</t>
+          <t>103557</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>178224</t>
+          <t>102355</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>182465</t>
+          <t>104150</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,23%</t>
+          <t>99,13%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
+          <t>97,98%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,14%</t>
+          <t>99,7%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>694</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>183018</t>
+          <t>114255</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>179930</t>
+          <t>112569</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>185504</t>
+          <t>115068</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>97,0%</t>
+          <t>98,68%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>95,37%</t>
+          <t>97,23%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>98,32%</t>
+          <t>99,39%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1030</t>
+          <t>1334</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>363811</t>
+          <t>217812</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>359584</t>
+          <t>215987</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>366777</t>
+          <t>218858</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>97,61%</t>
+          <t>98,89%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>96,47%</t>
+          <t>98,07%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>98,4%</t>
+          <t>99,37%</t>
         </is>
       </c>
     </row>
@@ -8645,22 +8645,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>646</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -8680,22 +8680,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>703</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8715,22 +8715,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1056</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8762,107 +8762,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>1077</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1550</t>
+          <t>444</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>5416</t>
+          <t>2132</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>5378</t>
+          <t>2807</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>2925</t>
+          <t>1609</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>9280</t>
+          <t>4571</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>8618</t>
+          <t>3884</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>5512</t>
+          <t>2470</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>12218</t>
+          <t>5792</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>2,61%</t>
         </is>
       </c>
     </row>
@@ -8875,107 +8875,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>548</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>143293</t>
+          <t>88146</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>141117</t>
+          <t>87091</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>144983</t>
+          <t>88779</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>98,79%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>97,61%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,94%</t>
+          <t>99,5%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>790</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>206442</t>
+          <t>129505</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>202540</t>
+          <t>127741</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>208895</t>
+          <t>130703</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>97,46%</t>
+          <t>97,88%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>95,62%</t>
+          <t>96,55%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>98,62%</t>
+          <t>98,78%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>984</t>
+          <t>1338</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>349735</t>
+          <t>217651</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>346135</t>
+          <t>215743</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>352841</t>
+          <t>219065</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>97,6%</t>
+          <t>98,25%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>96,59%</t>
+          <t>97,39%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>98,46%</t>
+          <t>98,89%</t>
         </is>
       </c>
     </row>
@@ -8988,22 +8988,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -9023,22 +9023,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>806</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -9058,22 +9058,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>358353</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>358353</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>358353</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -9105,107 +9105,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>24707</t>
+          <t>5507</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>18393</t>
+          <t>3775</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>32782</t>
+          <t>8144</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>38963</t>
+          <t>8453</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>29815</t>
+          <t>6142</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>49682</t>
+          <t>11409</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>76</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>63670</t>
+          <t>13960</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>51985</t>
+          <t>11025</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>76537</t>
+          <t>17848</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>1,17%</t>
         </is>
       </c>
     </row>
@@ -9218,107 +9218,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2807</t>
+          <t>4048</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1438279</t>
+          <t>718365</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1430204</t>
+          <t>715728</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1444593</t>
+          <t>720097</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>98,31%</t>
+          <t>99,24%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>97,76%</t>
+          <t>98,87%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>98,74%</t>
+          <t>99,48%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2807</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1525174</t>
+          <t>789103</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1514455</t>
+          <t>786147</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1534322</t>
+          <t>791414</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>97,51%</t>
+          <t>98,94%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>96,82%</t>
+          <t>98,57%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>98,09%</t>
+          <t>99,23%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>5614</t>
+          <t>8477</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>2963452</t>
+          <t>1507469</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2950585</t>
+          <t>1503581</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>2975137</t>
+          <t>1510404</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>97,9%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>98,83%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>98,28%</t>
+          <t>99,28%</t>
         </is>
       </c>
     </row>
@@ -9331,22 +9331,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2859</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -9366,22 +9366,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -9401,22 +9401,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>5739</t>
+          <t>8553</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>3027122</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>3027122</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>3027122</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
